--- a/Data/Info.xlsx
+++ b/Data/Info.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2B18E5-A328-4829-A3DD-FEFFC499319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D09E-2CF9-4F13-8FE4-44CCF93154DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26565" yWindow="9135" windowWidth="28800" windowHeight="13065" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard-Relais" sheetId="3" r:id="rId1"/>
-    <sheet name="SelectExpander" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="N1 (Expander-selection)" sheetId="4" r:id="rId2"/>
+    <sheet name="N2 (Display)" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="InternalMemory" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MainBoard-Relais'!$A$1:$AZ$47</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="261">
   <si>
     <t>N23 (Current source)</t>
   </si>
@@ -191,30 +193,12 @@
     <t>Current (AC+DC)</t>
   </si>
   <si>
-    <t>HEF4556</t>
-  </si>
-  <si>
-    <t>D1803</t>
-  </si>
-  <si>
-    <t>D1802</t>
-  </si>
-  <si>
     <t>Analog Ctrl</t>
   </si>
   <si>
     <t>N2</t>
   </si>
   <si>
-    <t>/E</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
     <t>/O3</t>
   </si>
   <si>
@@ -251,57 +235,9 @@
     <t>/PS2</t>
   </si>
   <si>
-    <t>0F</t>
-  </si>
-  <si>
-    <t>1F</t>
-  </si>
-  <si>
-    <t>2F</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>5F</t>
-  </si>
-  <si>
-    <t>6F</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
     <t>/D1701</t>
   </si>
   <si>
@@ -309,13 +245,595 @@
   </si>
   <si>
     <t>As 'Peak' is pressed on frontpanel, check D1703.P53: If -5V (eg, 'open'), no peakdetector. Otherwise: button.</t>
+  </si>
+  <si>
+    <t>Vpeak</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>ampl</t>
+  </si>
+  <si>
+    <t>Port P2 on the 8035 selects one of the IO-expanders</t>
+  </si>
+  <si>
+    <t>Internal Memory</t>
+  </si>
+  <si>
+    <t>INTMEM_00</t>
+  </si>
+  <si>
+    <t>INTMEM_01</t>
+  </si>
+  <si>
+    <t>INTMEM_02</t>
+  </si>
+  <si>
+    <t>INTMEM_03</t>
+  </si>
+  <si>
+    <t>INTMEM_04</t>
+  </si>
+  <si>
+    <t>INTMEM_05</t>
+  </si>
+  <si>
+    <t>INTMEM_06</t>
+  </si>
+  <si>
+    <t>INTMEM_07</t>
+  </si>
+  <si>
+    <t>INTMEM_08</t>
+  </si>
+  <si>
+    <t>INTMEM_09</t>
+  </si>
+  <si>
+    <t>INTMEM_10</t>
+  </si>
+  <si>
+    <t>INTMEM_11</t>
+  </si>
+  <si>
+    <t>INTMEM_12</t>
+  </si>
+  <si>
+    <t>INTMEM_13</t>
+  </si>
+  <si>
+    <t>INTMEM_14</t>
+  </si>
+  <si>
+    <t>INTMEM_15</t>
+  </si>
+  <si>
+    <t>INTMEM_16</t>
+  </si>
+  <si>
+    <t>INTMEM_17</t>
+  </si>
+  <si>
+    <t>INTMEM_18</t>
+  </si>
+  <si>
+    <t>INTMEM_19</t>
+  </si>
+  <si>
+    <t>INTMEM_20</t>
+  </si>
+  <si>
+    <t>INTMEM_21</t>
+  </si>
+  <si>
+    <t>INTMEM_22</t>
+  </si>
+  <si>
+    <t>INTMEM_23</t>
+  </si>
+  <si>
+    <t>INTMEM_24</t>
+  </si>
+  <si>
+    <t>INTMEM_25</t>
+  </si>
+  <si>
+    <t>INTMEM_26</t>
+  </si>
+  <si>
+    <t>INTMEM_27</t>
+  </si>
+  <si>
+    <t>INTMEM_28</t>
+  </si>
+  <si>
+    <t>INTMEM_29</t>
+  </si>
+  <si>
+    <t>INTMEM_30</t>
+  </si>
+  <si>
+    <t>INTMEM_31</t>
+  </si>
+  <si>
+    <t>INTMEM_32</t>
+  </si>
+  <si>
+    <t>INTMEM_33</t>
+  </si>
+  <si>
+    <t>INTMEM_34</t>
+  </si>
+  <si>
+    <t>INTMEM_35</t>
+  </si>
+  <si>
+    <t>INTMEM_36</t>
+  </si>
+  <si>
+    <t>INTMEM_37</t>
+  </si>
+  <si>
+    <t>INTMEM_38</t>
+  </si>
+  <si>
+    <t>INTMEM_39</t>
+  </si>
+  <si>
+    <t>INTMEM_0A</t>
+  </si>
+  <si>
+    <t>INTMEM_0B</t>
+  </si>
+  <si>
+    <t>INTMEM_0C</t>
+  </si>
+  <si>
+    <t>INTMEM_0D</t>
+  </si>
+  <si>
+    <t>INTMEM_0E</t>
+  </si>
+  <si>
+    <t>INTMEM_0F</t>
+  </si>
+  <si>
+    <t>INTMEM_1A</t>
+  </si>
+  <si>
+    <t>INTMEM_1B</t>
+  </si>
+  <si>
+    <t>INTMEM_1C</t>
+  </si>
+  <si>
+    <t>INTMEM_1D</t>
+  </si>
+  <si>
+    <t>INTMEM_1E</t>
+  </si>
+  <si>
+    <t>INTMEM_1F</t>
+  </si>
+  <si>
+    <t>INTMEM_2A</t>
+  </si>
+  <si>
+    <t>INTMEM_2B</t>
+  </si>
+  <si>
+    <t>INTMEM_2C</t>
+  </si>
+  <si>
+    <t>INTMEM_2D</t>
+  </si>
+  <si>
+    <t>INTMEM_2E</t>
+  </si>
+  <si>
+    <t>INTMEM_2F</t>
+  </si>
+  <si>
+    <t>INTMEM_3A</t>
+  </si>
+  <si>
+    <t>INTMEM_3B</t>
+  </si>
+  <si>
+    <t>INTMEM_3C</t>
+  </si>
+  <si>
+    <t>INTMEM_3D</t>
+  </si>
+  <si>
+    <t>INTMEM_3E</t>
+  </si>
+  <si>
+    <t>INTMEM_3F..FF</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>After reset</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>D1803A</t>
+  </si>
+  <si>
+    <t>D1803B</t>
+  </si>
+  <si>
+    <t>0x</t>
+  </si>
+  <si>
+    <t>1x</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>3x</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>6x</t>
+  </si>
+  <si>
+    <t>7x</t>
+  </si>
+  <si>
+    <t>8x</t>
+  </si>
+  <si>
+    <t>9x</t>
+  </si>
+  <si>
+    <t>Ax</t>
+  </si>
+  <si>
+    <t>Bx</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Ex</t>
+  </si>
+  <si>
+    <t>Fx</t>
+  </si>
+  <si>
+    <t>D201</t>
+  </si>
+  <si>
+    <t>/D201</t>
+  </si>
+  <si>
+    <t>/D202</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>D1909</t>
+  </si>
+  <si>
+    <t>D212A</t>
+  </si>
+  <si>
+    <t>D212B</t>
+  </si>
+  <si>
+    <t>Digit4</t>
+  </si>
+  <si>
+    <t>Digit3</t>
+  </si>
+  <si>
+    <t>Digit2</t>
+  </si>
+  <si>
+    <t>Digit1</t>
+  </si>
+  <si>
+    <t>Digit0 (LSB)</t>
+  </si>
+  <si>
+    <t>Digit5 (MSB)</t>
+  </si>
+  <si>
+    <t>D204</t>
+  </si>
+  <si>
+    <t>D205</t>
+  </si>
+  <si>
+    <t>D206</t>
+  </si>
+  <si>
+    <t>D207</t>
+  </si>
+  <si>
+    <t>D208</t>
+  </si>
+  <si>
+    <t>D209</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>VDC</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>VDCAC</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>ADCAC</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>D202</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>kΩ</t>
+  </si>
+  <si>
+    <t>MΩ</t>
+  </si>
+  <si>
+    <t>µA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>(nc)</t>
+  </si>
+  <si>
+    <t>(illegal)</t>
+  </si>
+  <si>
+    <t>(Low = on)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>REM</t>
+  </si>
+  <si>
+    <t>(low=on)</t>
+  </si>
+  <si>
+    <t>Ω2W</t>
+  </si>
+  <si>
+    <t>Ω4W</t>
+  </si>
+  <si>
+    <t>Indicator-Key</t>
+  </si>
+  <si>
+    <t>Indicator-Display</t>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>DP3</t>
+  </si>
+  <si>
+    <t>DP4</t>
+  </si>
+  <si>
+    <t>(decimal point)</t>
+  </si>
+  <si>
+    <t>Input from N1</t>
+  </si>
+  <si>
+    <t>P20 shifts the data for all 7segment-elements (a..g) for all digits</t>
+  </si>
+  <si>
+    <t>bit 0</t>
+  </si>
+  <si>
+    <t>bit 1</t>
+  </si>
+  <si>
+    <t>bit 2</t>
+  </si>
+  <si>
+    <t>bit 5</t>
+  </si>
+  <si>
+    <t>HR-mode</t>
+  </si>
+  <si>
+    <t>OFFSET-mode</t>
+  </si>
+  <si>
+    <t>bit 3</t>
+  </si>
+  <si>
+    <t>bit 4</t>
+  </si>
+  <si>
+    <t>bit 6</t>
+  </si>
+  <si>
+    <t>bit 7</t>
+  </si>
+  <si>
+    <t>00=internal, 01=external,10=manual</t>
+  </si>
+  <si>
+    <t>InstrumentMode</t>
+  </si>
+  <si>
+    <t>TRIGGER-mode</t>
+  </si>
+  <si>
+    <t>1=on</t>
+  </si>
+  <si>
+    <t>Autoranging?</t>
+  </si>
+  <si>
+    <t>Bitpattern for Function-indicators?</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>0x3A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,8 +874,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,18 +910,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -585,11 +1147,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -625,14 +1211,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -641,26 +1222,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -695,41 +1269,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1053,13 +1684,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ57"/>
+  <dimension ref="A1:BF57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="AF5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:AB47"/>
+      <selection pane="bottomRight" activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,9 +1704,11 @@
     <col min="35" max="35" width="1.28515625" customWidth="1"/>
     <col min="43" max="43" width="1.28515625" customWidth="1"/>
     <col min="51" max="51" width="1.28515625" customWidth="1"/>
+    <col min="53" max="53" width="1.28515625" customWidth="1"/>
+    <col min="57" max="57" width="1.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="H1" s="3"/>
       <c r="N1" s="3"/>
       <c r="T1" s="3"/>
@@ -1083,76 +1716,88 @@
       <c r="AI1" s="3"/>
       <c r="AQ1" s="3"/>
       <c r="AY1" s="3"/>
-    </row>
-    <row r="2" spans="1:52" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="BA1" s="3"/>
+      <c r="BE1" s="3"/>
+    </row>
+    <row r="2" spans="1:58" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
       <c r="AC2" s="3"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AD2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="47"/>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="47"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
       <c r="AQ2" s="3"/>
-      <c r="AR2" s="47" t="s">
+      <c r="AR2" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="AS2" s="47"/>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="47"/>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
+      <c r="AS2" s="61"/>
+      <c r="AT2" s="61"/>
+      <c r="AU2" s="61"/>
+      <c r="AV2" s="61"/>
+      <c r="AW2" s="61"/>
+      <c r="AX2" s="61"/>
       <c r="AY2" s="3"/>
       <c r="AZ2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC2" s="61"/>
+      <c r="BD2" s="61"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1292,8 +1937,19 @@
       <c r="AZ3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE3" s="3"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1371,8 +2027,10 @@
       <c r="AW4" s="13"/>
       <c r="AX4" s="13"/>
       <c r="AY4" s="14"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA4" s="14"/>
+      <c r="BE4" s="14"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1425,8 +2083,10 @@
       <c r="AW5" s="13"/>
       <c r="AX5" s="13"/>
       <c r="AY5" s="3"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA5" s="3"/>
+      <c r="BE5" s="3"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
@@ -1569,8 +2229,10 @@
       <c r="AZ6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA6" s="3"/>
+      <c r="BE6" s="3"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
@@ -1713,8 +2375,10 @@
       <c r="AZ7" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA7" s="3"/>
+      <c r="BE7" s="3"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>44</v>
       </c>
@@ -1855,8 +2519,10 @@
       </c>
       <c r="AY8" s="3"/>
       <c r="AZ8" s="9"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA8" s="3"/>
+      <c r="BE8" s="3"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="5">
         <v>1301</v>
@@ -1997,8 +2663,10 @@
       <c r="AZ9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA9" s="3"/>
+      <c r="BE9" s="3"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2723,10 @@
       <c r="AX10" s="9"/>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="9"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA10" s="3"/>
+      <c r="BE10" s="3"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>47</v>
       </c>
@@ -2199,8 +2869,10 @@
       <c r="AZ11" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA11" s="3"/>
+      <c r="BE11" s="3"/>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="5">
         <v>1304</v>
@@ -2341,8 +3013,10 @@
       <c r="AZ12" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA12" s="3"/>
+      <c r="BE12" s="3"/>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="5">
         <v>1305</v>
@@ -2483,8 +3157,10 @@
       <c r="AZ13" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA13" s="3"/>
+      <c r="BE13" s="3"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="5">
         <v>1306</v>
@@ -2625,8 +3301,10 @@
       <c r="AZ14" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA14" s="3"/>
+      <c r="BE14" s="3"/>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5">
         <v>1307</v>
@@ -2767,8 +3445,10 @@
       <c r="AZ15" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA15" s="3"/>
+      <c r="BE15" s="3"/>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="5">
         <v>1401</v>
@@ -2909,8 +3589,10 @@
       <c r="AZ16" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA16" s="3"/>
+      <c r="BE16" s="3"/>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="5">
         <v>1402</v>
@@ -3051,8 +3733,10 @@
       <c r="AZ17" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA17" s="3"/>
+      <c r="BE17" s="3"/>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="5">
         <v>1403</v>
@@ -3193,8 +3877,10 @@
       <c r="AZ18" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA18" s="3"/>
+      <c r="BE18" s="3"/>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="5">
         <v>1404</v>
@@ -3335,8 +4021,10 @@
       <c r="AZ19" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA19" s="3"/>
+      <c r="BE19" s="3"/>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="5">
         <v>1405</v>
@@ -3477,8 +4165,10 @@
       <c r="AZ20" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA20" s="3"/>
+      <c r="BE20" s="3"/>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="5">
         <v>1406</v>
@@ -3619,8 +4309,10 @@
       <c r="AZ21" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA21" s="3"/>
+      <c r="BE21" s="3"/>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="5">
         <v>1601</v>
@@ -3759,8 +4451,10 @@
       </c>
       <c r="AY22" s="3"/>
       <c r="AZ22" s="9"/>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA22" s="3"/>
+      <c r="BE22" s="3"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="5">
         <v>1602</v>
@@ -3899,8 +4593,10 @@
       </c>
       <c r="AY23" s="3"/>
       <c r="AZ23" s="9"/>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA23" s="3"/>
+      <c r="BE23" s="3"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="5">
         <v>1603</v>
@@ -4039,8 +4735,10 @@
       </c>
       <c r="AY24" s="3"/>
       <c r="AZ24" s="9"/>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA24" s="3"/>
+      <c r="BE24" s="3"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="5">
         <v>1604</v>
@@ -4181,8 +4879,10 @@
       <c r="AZ25" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA25" s="3"/>
+      <c r="BE25" s="3"/>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="5">
         <v>1605</v>
@@ -4323,8 +5023,10 @@
       <c r="AZ26" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA26" s="3"/>
+      <c r="BE26" s="3"/>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="5">
         <v>1606</v>
@@ -4465,8 +5167,10 @@
       <c r="AZ27" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA27" s="3"/>
+      <c r="BE27" s="3"/>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="5">
         <v>1607</v>
@@ -4607,8 +5311,10 @@
       <c r="AZ28" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA28" s="3"/>
+      <c r="BE28" s="3"/>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="5">
         <v>1608</v>
@@ -4749,8 +5455,10 @@
       <c r="AZ29" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA29" s="3"/>
+      <c r="BE29" s="3"/>
+    </row>
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="5">
         <v>1609</v>
@@ -4891,8 +5599,10 @@
       <c r="AZ30" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA30" s="3"/>
+      <c r="BE30" s="3"/>
+    </row>
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="5">
         <v>1610</v>
@@ -5033,8 +5743,10 @@
       <c r="AZ31" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA31" s="3"/>
+      <c r="BE31" s="3"/>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="9"/>
@@ -5087,8 +5799,10 @@
       <c r="AX32" s="9"/>
       <c r="AY32" s="3"/>
       <c r="AZ32" s="9"/>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA32" s="3"/>
+      <c r="BE32" s="3"/>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -5143,8 +5857,10 @@
       <c r="AX33" s="9"/>
       <c r="AY33" s="3"/>
       <c r="AZ33" s="9"/>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA33" s="3"/>
+      <c r="BE33" s="3"/>
+    </row>
+    <row r="34" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="5">
         <v>2201</v>
@@ -5199,8 +5915,10 @@
       <c r="AX34" s="9"/>
       <c r="AY34" s="3"/>
       <c r="AZ34" s="9"/>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA34" s="3"/>
+      <c r="BE34" s="3"/>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="5">
         <v>2202</v>
@@ -5255,8 +5973,10 @@
       <c r="AX35" s="9"/>
       <c r="AY35" s="3"/>
       <c r="AZ35" s="9"/>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA35" s="3"/>
+      <c r="BE35" s="3"/>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -5308,8 +6028,10 @@
       <c r="AX36" s="9"/>
       <c r="AY36" s="3"/>
       <c r="AZ36" s="9"/>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA36" s="3"/>
+      <c r="BE36" s="3"/>
+    </row>
+    <row r="37" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5363,8 +6085,10 @@
       <c r="AX37" s="9"/>
       <c r="AY37" s="3"/>
       <c r="AZ37" s="9"/>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA37" s="3"/>
+      <c r="BE37" s="3"/>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="5">
         <v>2301</v>
@@ -5445,8 +6169,10 @@
       <c r="AX38" s="9"/>
       <c r="AY38" s="3"/>
       <c r="AZ38" s="9"/>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA38" s="3"/>
+      <c r="BE38" s="3"/>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="5">
         <v>2302</v>
@@ -5527,8 +6253,10 @@
       <c r="AX39" s="9"/>
       <c r="AY39" s="3"/>
       <c r="AZ39" s="9"/>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA39" s="3"/>
+      <c r="BE39" s="3"/>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="B40" s="5">
         <v>2303</v>
@@ -5609,8 +6337,10 @@
       <c r="AX40" s="9"/>
       <c r="AY40" s="3"/>
       <c r="AZ40" s="9"/>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA40" s="3"/>
+      <c r="BE40" s="3"/>
+    </row>
+    <row r="41" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="5">
         <v>2304</v>
@@ -5691,8 +6421,10 @@
       <c r="AX41" s="9"/>
       <c r="AY41" s="3"/>
       <c r="AZ41" s="9"/>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA41" s="3"/>
+      <c r="BE41" s="3"/>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="B42" s="5">
         <v>2305</v>
@@ -5773,8 +6505,10 @@
       <c r="AX42" s="9"/>
       <c r="AY42" s="3"/>
       <c r="AZ42" s="9"/>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA42" s="3"/>
+      <c r="BE42" s="3"/>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="5">
         <v>2306</v>
@@ -5855,8 +6589,10 @@
       <c r="AX43" s="9"/>
       <c r="AY43" s="3"/>
       <c r="AZ43" s="9"/>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA43" s="3"/>
+      <c r="BE43" s="3"/>
+    </row>
+    <row r="44" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="B44" s="5">
         <v>2307</v>
@@ -5937,8 +6673,10 @@
       <c r="AX44" s="9"/>
       <c r="AY44" s="3"/>
       <c r="AZ44" s="9"/>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA44" s="3"/>
+      <c r="BE44" s="3"/>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -5990,8 +6728,10 @@
       <c r="AX45" s="9"/>
       <c r="AY45" s="3"/>
       <c r="AZ45" s="9"/>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA45" s="3"/>
+      <c r="BE45" s="3"/>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -6045,8 +6785,10 @@
       <c r="AX46" s="9"/>
       <c r="AY46" s="3"/>
       <c r="AZ46" s="9"/>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA46" s="3"/>
+      <c r="BE46" s="3"/>
+    </row>
+    <row r="47" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5">
         <v>2515</v>
@@ -6185,8 +6927,10 @@
       </c>
       <c r="AY47" s="3"/>
       <c r="AZ47" s="9"/>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BA47" s="3"/>
+      <c r="BE47" s="3"/>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="6"/>
     </row>
@@ -6218,7 +6962,8 @@
       <c r="A57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="BB2:BD2"/>
     <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AJ2:AP2"/>
     <mergeCell ref="C2:G2"/>
@@ -6238,1338 +6983,1576 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB510DA-ECEA-4CDC-88C7-6437542EFB4D}">
-  <dimension ref="B1:AG20"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" customWidth="1"/>
-    <col min="11" max="14" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="17" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.140625" customWidth="1"/>
-    <col min="28" max="30" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.7109375" customWidth="1"/>
-    <col min="32" max="33" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" customWidth="1"/>
+    <col min="4" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" customWidth="1"/>
+    <col min="14" max="17" width="4.140625" customWidth="1"/>
+    <col min="18" max="18" width="1.42578125" customWidth="1"/>
+    <col min="19" max="22" width="4.140625" customWidth="1"/>
+    <col min="23" max="23" width="3.140625" customWidth="1"/>
+    <col min="24" max="26" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.7109375" customWidth="1"/>
+    <col min="28" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" customWidth="1"/>
+    <col min="33" max="33" width="2.42578125" customWidth="1"/>
+    <col min="34" max="39" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D3" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+      <c r="N3" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="68"/>
+      <c r="X3" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="Q2" s="51" t="s">
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="52" t="s">
+      <c r="AC3" s="63"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="53"/>
-      <c r="AB2" s="54" t="s">
+      <c r="O4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="55" t="s">
+      <c r="P4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" s="56"/>
-    </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="23" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="Y4" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="Z4" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB4" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="AC4" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="26" t="s">
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="N5" s="27"/>
+      <c r="V5" s="28"/>
+      <c r="X5" s="29"/>
+      <c r="AC5" s="30"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="28"/>
-      <c r="V3" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="K4" s="35"/>
-      <c r="N4" s="36"/>
-      <c r="Q4" s="33"/>
-      <c r="Z4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AG4" s="36"/>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B5" s="37">
-        <v>0</v>
-      </c>
-      <c r="C5" s="38">
-        <v>0</v>
-      </c>
-      <c r="D5" s="38">
-        <v>0</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="38">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
-        <v>0</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="37">
-        <v>1</v>
-      </c>
-      <c r="R5" s="38">
-        <v>1</v>
-      </c>
-      <c r="S5" s="38">
-        <v>1</v>
-      </c>
-      <c r="T5" s="38">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>Q5</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="38">
-        <v>1</v>
-      </c>
-      <c r="X5" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="40">
-        <f>X5</f>
-        <v>1</v>
-      </c>
-      <c r="AC5" s="38">
-        <f t="shared" ref="AC5:AD20" si="0">Y5</f>
-        <v>1</v>
-      </c>
-      <c r="AD5" s="38">
+      <c r="I6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="31">
+        <v>1</v>
+      </c>
+      <c r="O6" s="32">
+        <v>1</v>
+      </c>
+      <c r="P6" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32">
+        <v>1</v>
+      </c>
+      <c r="T6" s="32">
+        <v>1</v>
+      </c>
+      <c r="U6" s="32">
+        <v>1</v>
+      </c>
+      <c r="V6" s="33">
+        <v>1</v>
+      </c>
+      <c r="X6" s="34">
+        <f t="shared" ref="X6:X21" si="0">T6</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="32">
+        <f t="shared" ref="Y6:Y21" si="1">U6</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="32">
+        <f t="shared" ref="Z6:Z21" si="2">V6</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="32">
+        <f>P6</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="35">
+        <f>O6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
+      <c r="O7" s="32">
+        <v>1</v>
+      </c>
+      <c r="P7" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32">
+        <v>1</v>
+      </c>
+      <c r="T7" s="32">
+        <v>1</v>
+      </c>
+      <c r="U7" s="32">
+        <v>1</v>
+      </c>
+      <c r="V7" s="33">
+        <v>1</v>
+      </c>
+      <c r="X7" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF5" s="38">
-        <f>S5</f>
-        <v>1</v>
-      </c>
-      <c r="AG5" s="41">
-        <f>R5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B6" s="37">
-        <v>0</v>
-      </c>
-      <c r="C6" s="38">
-        <v>0</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38">
-        <v>1</v>
-      </c>
-      <c r="G6" s="38">
-        <v>1</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="39">
-        <v>1</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0</v>
-      </c>
-      <c r="L6" s="38">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38">
-        <v>0</v>
-      </c>
-      <c r="N6" s="41">
-        <v>1</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="37">
-        <v>1</v>
-      </c>
-      <c r="R6" s="38">
-        <v>1</v>
-      </c>
-      <c r="S6" s="38">
-        <v>1</v>
-      </c>
-      <c r="T6" s="38">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ref="V6:V20" si="1">Q6</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="38">
-        <v>1</v>
-      </c>
-      <c r="X6" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="40">
-        <f t="shared" ref="AB6:AB20" si="2">X6</f>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="38">
+      <c r="Y7" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z7" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB7" s="32">
+        <f t="shared" ref="AB7:AB21" si="3">P7</f>
+        <v>1</v>
+      </c>
+      <c r="AC7" s="35">
+        <f t="shared" ref="AC7:AC21" si="4">O7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>1</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1</v>
+      </c>
+      <c r="P8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1</v>
+      </c>
+      <c r="T8" s="32">
+        <v>1</v>
+      </c>
+      <c r="U8" s="32">
+        <v>1</v>
+      </c>
+      <c r="V8" s="33">
+        <v>1</v>
+      </c>
+      <c r="X8" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD6" s="38">
+      <c r="Y8" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB8" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1</v>
+      </c>
+      <c r="P9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1</v>
+      </c>
+      <c r="T9" s="32">
+        <v>1</v>
+      </c>
+      <c r="U9" s="32">
+        <v>1</v>
+      </c>
+      <c r="V9" s="33">
+        <v>1</v>
+      </c>
+      <c r="X9" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF6" s="38">
-        <f t="shared" ref="AF6:AF20" si="3">S6</f>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="41">
-        <f t="shared" ref="AG6:AG20" si="4">R6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
-        <v>0</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>1</v>
-      </c>
-      <c r="I7" s="39">
-        <v>1</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="38">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38">
-        <v>1</v>
-      </c>
-      <c r="N7" s="41">
-        <v>0</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="37">
-        <v>1</v>
-      </c>
-      <c r="R7" s="38">
-        <v>1</v>
-      </c>
-      <c r="S7" s="38">
-        <v>1</v>
-      </c>
-      <c r="T7" s="38">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="Y9" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W7" s="38">
-        <v>1</v>
-      </c>
-      <c r="X7" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="40">
+      <c r="Z9" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
+      <c r="O10" s="32">
+        <v>1</v>
+      </c>
+      <c r="P10" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>1</v>
+      </c>
+      <c r="S10" s="32">
+        <v>1</v>
+      </c>
+      <c r="T10" s="32">
+        <v>1</v>
+      </c>
+      <c r="U10" s="32">
+        <v>1</v>
+      </c>
+      <c r="V10" s="33">
+        <v>1</v>
+      </c>
+      <c r="X10" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="Y10" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z10" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>1</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1</v>
+      </c>
+      <c r="O11" s="32">
+        <v>1</v>
+      </c>
+      <c r="P11" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="32">
+        <v>1</v>
+      </c>
+      <c r="S11" s="32">
+        <v>1</v>
+      </c>
+      <c r="T11" s="32">
+        <v>1</v>
+      </c>
+      <c r="U11" s="32">
+        <v>1</v>
+      </c>
+      <c r="V11" s="33">
+        <v>1</v>
+      </c>
+      <c r="X11" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AF7" s="38">
+      <c r="Y11" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z11" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B8" s="37">
-        <v>0</v>
-      </c>
-      <c r="C8" s="38">
-        <v>1</v>
-      </c>
-      <c r="D8" s="38">
-        <v>1</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1</v>
-      </c>
-      <c r="H8" s="38">
-        <v>1</v>
-      </c>
-      <c r="I8" s="39">
-        <v>1</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-      <c r="M8" s="38">
-        <v>1</v>
-      </c>
-      <c r="N8" s="41">
-        <v>1</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="37">
-        <v>1</v>
-      </c>
-      <c r="R8" s="38">
-        <v>1</v>
-      </c>
-      <c r="S8" s="38">
-        <v>1</v>
-      </c>
-      <c r="T8" s="38">
-        <v>0</v>
-      </c>
-      <c r="V8">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="31">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32">
+        <v>1</v>
+      </c>
+      <c r="P12" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1</v>
+      </c>
+      <c r="S12" s="32">
+        <v>1</v>
+      </c>
+      <c r="T12" s="32">
+        <v>1</v>
+      </c>
+      <c r="U12" s="32">
+        <v>1</v>
+      </c>
+      <c r="V12" s="33">
+        <v>1</v>
+      </c>
+      <c r="X12" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W8" s="38">
-        <v>1</v>
-      </c>
-      <c r="X8" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="40">
+      <c r="Z12" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="31">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1</v>
+      </c>
+      <c r="P13" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>1</v>
+      </c>
+      <c r="S13" s="32">
+        <v>1</v>
+      </c>
+      <c r="T13" s="32">
+        <v>1</v>
+      </c>
+      <c r="U13" s="32">
+        <v>1</v>
+      </c>
+      <c r="V13" s="33">
+        <v>1</v>
+      </c>
+      <c r="X13" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="Y13" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="31">
+        <v>1</v>
+      </c>
+      <c r="O14" s="32">
+        <v>0</v>
+      </c>
+      <c r="P14" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>1</v>
+      </c>
+      <c r="S14" s="32">
+        <v>1</v>
+      </c>
+      <c r="T14" s="32">
+        <v>1</v>
+      </c>
+      <c r="U14" s="32">
+        <v>1</v>
+      </c>
+      <c r="V14" s="33">
+        <v>1</v>
+      </c>
+      <c r="X14" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38">
+      <c r="Y14" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="41">
+      <c r="AC14" s="35">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="43">
-        <v>1</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <v>1</v>
-      </c>
-      <c r="M9" s="38">
-        <v>0</v>
-      </c>
-      <c r="N9" s="41">
-        <v>0</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" s="37">
-        <v>1</v>
-      </c>
-      <c r="R9" s="38">
-        <v>1</v>
-      </c>
-      <c r="S9" s="38">
-        <v>0</v>
-      </c>
-      <c r="T9" s="38">
-        <v>1</v>
-      </c>
-      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D15" s="34">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="N15" s="31">
+        <v>1</v>
+      </c>
+      <c r="O15" s="32">
+        <v>0</v>
+      </c>
+      <c r="P15" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>1</v>
+      </c>
+      <c r="S15" s="32">
+        <v>1</v>
+      </c>
+      <c r="T15" s="32">
+        <v>1</v>
+      </c>
+      <c r="U15" s="32">
+        <v>1</v>
+      </c>
+      <c r="V15" s="33">
+        <v>1</v>
+      </c>
+      <c r="X15" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W9" s="38">
-        <v>1</v>
-      </c>
-      <c r="X9" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="40">
+      <c r="Z15" s="32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="31">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32">
+        <v>0</v>
+      </c>
+      <c r="P16" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>1</v>
+      </c>
+      <c r="S16" s="32">
+        <v>1</v>
+      </c>
+      <c r="T16" s="32">
+        <v>1</v>
+      </c>
+      <c r="U16" s="32">
+        <v>1</v>
+      </c>
+      <c r="V16" s="33">
+        <v>1</v>
+      </c>
+      <c r="X16" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD9" s="38">
+      <c r="Y16" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="32">
+        <v>1</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="N17" s="31">
+        <v>1</v>
+      </c>
+      <c r="O17" s="32">
+        <v>0</v>
+      </c>
+      <c r="P17" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>1</v>
+      </c>
+      <c r="S17" s="32">
+        <v>1</v>
+      </c>
+      <c r="T17" s="32">
+        <v>1</v>
+      </c>
+      <c r="U17" s="32">
+        <v>1</v>
+      </c>
+      <c r="V17" s="33">
+        <v>1</v>
+      </c>
+      <c r="X17" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38">
+      <c r="Y17" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="35">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <v>1</v>
-      </c>
-      <c r="M10" s="38">
-        <v>0</v>
-      </c>
-      <c r="N10" s="41">
-        <v>1</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="37">
-        <v>1</v>
-      </c>
-      <c r="R10" s="38">
-        <v>1</v>
-      </c>
-      <c r="S10" s="38">
-        <v>0</v>
-      </c>
-      <c r="T10" s="38">
-        <v>1</v>
-      </c>
-      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="N18" s="31">
+        <v>0</v>
+      </c>
+      <c r="O18" s="32">
+        <v>1</v>
+      </c>
+      <c r="P18" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>1</v>
+      </c>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32">
+        <v>1</v>
+      </c>
+      <c r="T18" s="32">
+        <v>1</v>
+      </c>
+      <c r="U18" s="32">
+        <v>1</v>
+      </c>
+      <c r="V18" s="33">
+        <v>0</v>
+      </c>
+      <c r="X18" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W10" s="38">
-        <v>1</v>
-      </c>
-      <c r="X10" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="40">
+      <c r="Z18" s="32">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC18" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>1</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="N19" s="31">
+        <v>0</v>
+      </c>
+      <c r="O19" s="32">
+        <v>1</v>
+      </c>
+      <c r="P19" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>1</v>
+      </c>
+      <c r="S19" s="32">
+        <v>1</v>
+      </c>
+      <c r="T19" s="32">
+        <v>1</v>
+      </c>
+      <c r="U19" s="32">
+        <v>0</v>
+      </c>
+      <c r="V19" s="33">
+        <v>1</v>
+      </c>
+      <c r="X19" s="34">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="38">
+      <c r="Y19" s="32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AC19" s="35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D20" s="34">
+        <v>1</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="31">
+        <v>0</v>
+      </c>
+      <c r="O20" s="32">
+        <v>1</v>
+      </c>
+      <c r="P20" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>1</v>
+      </c>
+      <c r="S20" s="32">
+        <v>1</v>
+      </c>
+      <c r="T20" s="32">
+        <v>0</v>
+      </c>
+      <c r="U20" s="32">
+        <v>1</v>
+      </c>
+      <c r="V20" s="33">
+        <v>1</v>
+      </c>
+      <c r="X20" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="35">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <v>1</v>
-      </c>
-      <c r="M11" s="38">
-        <v>1</v>
-      </c>
-      <c r="N11" s="41">
-        <v>0</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="37">
-        <v>1</v>
-      </c>
-      <c r="R11" s="38">
-        <v>1</v>
-      </c>
-      <c r="S11" s="38">
-        <v>0</v>
-      </c>
-      <c r="T11" s="38">
-        <v>1</v>
-      </c>
-      <c r="V11">
+    <row r="21" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>1</v>
+      </c>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="36">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1</v>
+      </c>
+      <c r="P21" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>1</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="15">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <v>1</v>
+      </c>
+      <c r="U21" s="15">
+        <v>1</v>
+      </c>
+      <c r="V21" s="37">
+        <v>1</v>
+      </c>
+      <c r="X21" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y21" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W11" s="38">
-        <v>1</v>
-      </c>
-      <c r="X11" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="40">
+      <c r="Z21" s="39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AC11" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD11" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38">
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="41">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="40">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K12" s="40">
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <v>1</v>
-      </c>
-      <c r="M12" s="38">
-        <v>1</v>
-      </c>
-      <c r="N12" s="41">
-        <v>1</v>
-      </c>
-      <c r="O12" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="37">
-        <v>1</v>
-      </c>
-      <c r="R12" s="38">
-        <v>1</v>
-      </c>
-      <c r="S12" s="38">
-        <v>0</v>
-      </c>
-      <c r="T12" s="38">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="38">
-        <v>1</v>
-      </c>
-      <c r="X12" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC12" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD12" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K13" s="40">
-        <v>1</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="41">
-        <v>0</v>
-      </c>
-      <c r="O13" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q13" s="37">
-        <v>1</v>
-      </c>
-      <c r="R13" s="38">
-        <v>0</v>
-      </c>
-      <c r="S13" s="38">
-        <v>1</v>
-      </c>
-      <c r="T13" s="38">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W13" s="38">
-        <v>1</v>
-      </c>
-      <c r="X13" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC13" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD13" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG13" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K14" s="40">
-        <v>1</v>
-      </c>
-      <c r="L14" s="38">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="41">
-        <v>1</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="37">
-        <v>1</v>
-      </c>
-      <c r="R14" s="38">
-        <v>0</v>
-      </c>
-      <c r="S14" s="38">
-        <v>1</v>
-      </c>
-      <c r="T14" s="38">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W14" s="38">
-        <v>1</v>
-      </c>
-      <c r="X14" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC14" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD14" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG14" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K15" s="40">
-        <v>1</v>
-      </c>
-      <c r="L15" s="38">
-        <v>0</v>
-      </c>
-      <c r="M15" s="38">
-        <v>1</v>
-      </c>
-      <c r="N15" s="41">
-        <v>0</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q15" s="37">
-        <v>1</v>
-      </c>
-      <c r="R15" s="38">
-        <v>0</v>
-      </c>
-      <c r="S15" s="38">
-        <v>1</v>
-      </c>
-      <c r="T15" s="38">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="38">
-        <v>1</v>
-      </c>
-      <c r="X15" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC15" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD15" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG15" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="K16" s="40">
-        <v>1</v>
-      </c>
-      <c r="L16" s="38">
-        <v>0</v>
-      </c>
-      <c r="M16" s="38">
-        <v>1</v>
-      </c>
-      <c r="N16" s="41">
-        <v>1</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="37">
-        <v>1</v>
-      </c>
-      <c r="R16" s="38">
-        <v>0</v>
-      </c>
-      <c r="S16" s="38">
-        <v>1</v>
-      </c>
-      <c r="T16" s="38">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W16" s="38">
-        <v>1</v>
-      </c>
-      <c r="X16" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC16" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD16" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="41">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="11:33" x14ac:dyDescent="0.25">
-      <c r="K17" s="40">
-        <v>1</v>
-      </c>
-      <c r="L17" s="38">
-        <v>1</v>
-      </c>
-      <c r="M17" s="38">
-        <v>0</v>
-      </c>
-      <c r="N17" s="41">
-        <v>0</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="37">
-        <v>0</v>
-      </c>
-      <c r="R17" s="38">
-        <v>1</v>
-      </c>
-      <c r="S17" s="38">
-        <v>1</v>
-      </c>
-      <c r="T17" s="38">
-        <v>1</v>
-      </c>
-      <c r="U17" s="38"/>
-      <c r="V17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="38">
-        <v>1</v>
-      </c>
-      <c r="X17" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC17" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD17" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG17" s="41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="11:33" x14ac:dyDescent="0.25">
-      <c r="K18" s="40">
-        <v>1</v>
-      </c>
-      <c r="L18" s="38">
-        <v>1</v>
-      </c>
-      <c r="M18" s="38">
-        <v>0</v>
-      </c>
-      <c r="N18" s="41">
-        <v>1</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="37">
-        <v>0</v>
-      </c>
-      <c r="R18" s="38">
-        <v>1</v>
-      </c>
-      <c r="S18" s="38">
-        <v>1</v>
-      </c>
-      <c r="T18" s="38">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="38">
-        <v>1</v>
-      </c>
-      <c r="X18" s="38">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="40">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC18" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG18" s="41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="11:33" x14ac:dyDescent="0.25">
-      <c r="K19" s="40">
-        <v>1</v>
-      </c>
-      <c r="L19" s="38">
-        <v>1</v>
-      </c>
-      <c r="M19" s="38">
-        <v>1</v>
-      </c>
-      <c r="N19" s="41">
-        <v>0</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q19" s="37">
-        <v>0</v>
-      </c>
-      <c r="R19" s="38">
-        <v>1</v>
-      </c>
-      <c r="S19" s="38">
-        <v>1</v>
-      </c>
-      <c r="T19" s="38">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="38">
-        <v>1</v>
-      </c>
-      <c r="X19" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="38">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="39">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD19" s="38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG19" s="41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="11:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="44">
-        <v>1</v>
-      </c>
-      <c r="L20" s="45">
-        <v>1</v>
-      </c>
-      <c r="M20" s="45">
-        <v>1</v>
-      </c>
-      <c r="N20" s="46">
-        <v>1</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="42">
-        <v>0</v>
-      </c>
-      <c r="R20" s="15">
-        <v>1</v>
-      </c>
-      <c r="S20" s="15">
-        <v>1</v>
-      </c>
-      <c r="T20" s="15">
-        <v>1</v>
-      </c>
-      <c r="U20" s="13"/>
-      <c r="V20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="15">
-        <v>0</v>
-      </c>
-      <c r="X20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="44">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AC20" s="45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD20" s="45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AG20" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="23" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+    </row>
+    <row r="24" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+    </row>
+    <row r="25" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+    </row>
+    <row r="26" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+    </row>
+    <row r="27" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+    </row>
+    <row r="28" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+    </row>
+    <row r="29" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+    </row>
+    <row r="30" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+    </row>
+    <row r="31" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+    </row>
+    <row r="32" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+    </row>
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AF2:AG2"/>
+  <mergeCells count="6">
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="D2:AC2"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
-  <conditionalFormatting sqref="AB5:AD20 AF5:AG20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="X6:Z21 AB6:AC21">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7578,26 +8561,2031 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF7209-D1EE-411E-A7B2-8C676C749DBA}">
+  <dimension ref="B1:AS36"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="2.5703125" customWidth="1"/>
+    <col min="22" max="22" width="1.42578125" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" customWidth="1"/>
+    <col min="25" max="28" width="5.42578125" customWidth="1"/>
+    <col min="29" max="29" width="2.5703125" customWidth="1"/>
+    <col min="30" max="33" width="5.85546875" customWidth="1"/>
+    <col min="34" max="34" width="2.140625" customWidth="1"/>
+    <col min="35" max="38" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.7109375" customWidth="1"/>
+    <col min="41" max="44" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="S1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+    </row>
+    <row r="2" spans="2:45" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="64"/>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="K3" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+    </row>
+    <row r="4" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="R4" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>175</v>
+      </c>
+      <c r="R5" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+    </row>
+    <row r="6" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="32">
+        <v>1</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>1</v>
+      </c>
+      <c r="O6" s="32">
+        <v>1</v>
+      </c>
+      <c r="P6" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>1</v>
+      </c>
+      <c r="R6" s="32">
+        <v>1</v>
+      </c>
+      <c r="S6" s="32">
+        <v>1</v>
+      </c>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+    </row>
+    <row r="7" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="32">
+        <v>1</v>
+      </c>
+      <c r="O7" s="32">
+        <v>1</v>
+      </c>
+      <c r="P7" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>1</v>
+      </c>
+      <c r="R7" s="32">
+        <v>1</v>
+      </c>
+      <c r="S7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="32">
+        <v>1</v>
+      </c>
+      <c r="L8" s="32">
+        <v>1</v>
+      </c>
+      <c r="N8" s="32">
+        <v>1</v>
+      </c>
+      <c r="O8" s="32">
+        <v>1</v>
+      </c>
+      <c r="P8" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>1</v>
+      </c>
+      <c r="R8" s="32">
+        <v>1</v>
+      </c>
+      <c r="S8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="32">
+        <v>1</v>
+      </c>
+      <c r="L9" s="32">
+        <v>1</v>
+      </c>
+      <c r="N9" s="32">
+        <v>1</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1</v>
+      </c>
+      <c r="P9" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>1</v>
+      </c>
+      <c r="R9" s="32">
+        <v>1</v>
+      </c>
+      <c r="S9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="32">
+        <v>1</v>
+      </c>
+      <c r="L10" s="32">
+        <v>1</v>
+      </c>
+      <c r="N10" s="56">
+        <v>0</v>
+      </c>
+      <c r="O10" s="56">
+        <v>0</v>
+      </c>
+      <c r="P10" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>1</v>
+      </c>
+      <c r="R10" s="32">
+        <v>1</v>
+      </c>
+      <c r="S10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="32">
+        <v>1</v>
+      </c>
+      <c r="L11" s="32">
+        <v>1</v>
+      </c>
+      <c r="N11" s="32">
+        <v>1</v>
+      </c>
+      <c r="O11" s="32">
+        <v>1</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32">
+        <v>1</v>
+      </c>
+      <c r="S11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="32">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32">
+        <v>1</v>
+      </c>
+      <c r="O12" s="32">
+        <v>1</v>
+      </c>
+      <c r="P12" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="32">
+        <v>1</v>
+      </c>
+      <c r="R12" s="56">
+        <v>0</v>
+      </c>
+      <c r="S12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="32">
+        <v>1</v>
+      </c>
+      <c r="L13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>1</v>
+      </c>
+      <c r="O13" s="32">
+        <v>1</v>
+      </c>
+      <c r="P13" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>1</v>
+      </c>
+      <c r="R13" s="32">
+        <v>1</v>
+      </c>
+      <c r="S13" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="Y14" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N15" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="Y15" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="72"/>
+    </row>
+    <row r="16" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+    </row>
+    <row r="18" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O18" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="Y18" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="69"/>
+      <c r="AQ18" s="69"/>
+      <c r="AR18" s="69"/>
+      <c r="AS18" s="69"/>
+    </row>
+    <row r="19" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="P19" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="R19" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="S19" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="V19" s="57"/>
+      <c r="W19" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y19" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z19" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA19" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB19" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD19" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE19" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF19" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG19" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI19" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ19" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK19" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL19" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AO19" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP19" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ19" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR19" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O21" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="S21" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z21" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA21" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB21" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE21" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF21" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG21" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O22" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="S22" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AI22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O23" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="S23" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AI23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O24" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="R24" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AI24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AO24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="32">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AI25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O26" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="W26" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AI26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O27" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="W27" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AI27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O28" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="W28" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="50"/>
+      <c r="AE28" s="50"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AI28" s="32">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="32">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO28" s="50">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O29" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AI29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO29" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="32">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AI30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="32">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="32">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O31" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="W31" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="50"/>
+      <c r="AE31" s="50"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+      <c r="AI31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O32" s="46" t="s">
+        <v>187</v>
+      </c>
+      <c r="W32" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AI32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="50">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="50">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O33" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="W33" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="50"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="50"/>
+      <c r="AI33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="50">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="O34" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="W34" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD34" s="50"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
+      <c r="AG34" s="50"/>
+      <c r="AI34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="50">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AQ34" s="50">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AI35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="50">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="50">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="15:45" x14ac:dyDescent="0.25">
+      <c r="S36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AI36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AO36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="50">
+        <v>1</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="O18:W18"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B2:AS2"/>
+    <mergeCell ref="Y18:AS18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="K6:L13">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C115D6F0-6F20-429E-A21E-CAF81A83ED63}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C88B0-3D7B-4586-98D6-71E94B4FEF77}">
+  <dimension ref="A1:J83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E76" sqref="E76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>258</v>
+      </c>
+      <c r="I41" s="58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="60" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="59" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>248</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>255</v>
+      </c>
+      <c r="I51" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="J51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I52" s="59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="E80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Info.xlsx
+++ b/Data/Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Gadgets\Philips PM2528 DMM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710D09E-2CF9-4F13-8FE4-44CCF93154DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52677604-1F6E-46B8-9BFD-35BA113ACBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1BACE0FD-08C6-41B4-8CD8-ADA47AB22099}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoard-Relais" sheetId="3" r:id="rId1"/>
@@ -1331,6 +1331,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,9 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6986,7 +6986,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8564,8 +8564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF7209-D1EE-411E-A7B2-8C676C749DBA}">
   <dimension ref="B1:AS36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,29 +8642,29 @@
       <c r="AS2" s="64"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="K3" s="69" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="K3" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="69"/>
+      <c r="L3" s="70"/>
       <c r="M3" s="32"/>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
     </row>
     <row r="4" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
@@ -9140,11 +9140,11 @@
       <c r="S13" s="56">
         <v>0</v>
       </c>
-      <c r="Y13" s="70" t="s">
+      <c r="Y13" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.25">
       <c r="N14" s="32"/>
@@ -9153,11 +9153,11 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
-      <c r="Y14" s="71" t="s">
+      <c r="Y14" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.25">
       <c r="N15" s="47" t="s">
@@ -9168,11 +9168,11 @@
       <c r="Q15" s="32"/>
       <c r="R15" s="32"/>
       <c r="S15" s="32"/>
-      <c r="Y15" s="72" t="s">
+      <c r="Y15" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.25">
       <c r="N16" s="32"/>
@@ -9183,40 +9183,40 @@
       <c r="S16" s="32"/>
     </row>
     <row r="18" spans="15:45" x14ac:dyDescent="0.25">
-      <c r="O18" s="69" t="s">
+      <c r="O18" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="Y18" s="69" t="s">
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="Y18" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="70"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="70"/>
+      <c r="AG18" s="70"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="70"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="70"/>
+      <c r="AS18" s="70"/>
     </row>
     <row r="19" spans="15:45" x14ac:dyDescent="0.25">
       <c r="P19" s="46" t="s">
@@ -9386,12 +9386,12 @@
       <c r="U22" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="Y22" s="73" t="s">
+      <c r="Y22" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
@@ -10036,16 +10036,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:AS2"/>
+    <mergeCell ref="Y18:AS18"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="Y22:AB22"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="N3:S3"/>
     <mergeCell ref="O18:W18"/>
     <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B2:AS2"/>
-    <mergeCell ref="Y18:AS18"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K6:L13">
@@ -10086,7 +10086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877C88B0-3D7B-4586-98D6-71E94B4FEF77}">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
